--- a/biology/Zoologie/Conure_pavouane/Conure_pavouane.xlsx
+++ b/biology/Zoologie/Conure_pavouane/Conure_pavouane.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Psittacara leucophthalmus
 La Conure pavouane (Psittacara leucophthalmus, anciennement Aratinga leucophthalmus) est une espèce d'oiseaux néotropicaux.
@@ -512,7 +524,9 @@
           <t>Taxinomie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Suivant une étude phylogénique de Remsen et al. (2013), le genre Aratinga est entièrement redéfini pour être monophylétique. Le Congrès ornithologique international répercute ces changements dans sa classification de référence version 3.5 (2013), et la Conure pavouane est déplacée vers le genre Psittacara.
 </t>
